--- a/va_facility_data_2025-02-20/Alvin C. York Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''Alvin%20C.%20York%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Alvin C. York Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''Alvin%20C.%20York%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8dfacc29f7644474bdf963526eadecfc"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbc6bf7a6c99a4cd5959d41c42b5c3a92"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R838832ddb8eb472bb40a6d58271a7e30"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R46975e8f181f49e395925741fdbbb9e1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra3e46b941a584a4eb529063343f3c148"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R465ed0e9f37843b8b584221c805fe14f"/>
   </x:sheets>
 </x:workbook>
 </file>
